--- a/medicine/Médecine vétérinaire/Laboratoire_de_Weybridge/Laboratoire_de_Weybridge.xlsx
+++ b/medicine/Médecine vétérinaire/Laboratoire_de_Weybridge/Laboratoire_de_Weybridge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le laboratoire de Weybridge a été créé à Londres il y a plus d'un siècle en 1894 par le ministère britannique de l'Agriculture, de la Pêche et de l'Alimentation, sous le nom de Central Veterinary Laboratory (CVL). C'était l'un des premiers au monde consacré à la santé animale.
 Le Service des laboratoires vétérinaires a acquis une vocation de centre de recherche en 1905.
@@ -516,7 +528,9 @@
           <t>Fonctions actuelles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le double champ de compétence de l'Agence est la santé humaine et animale. 
 En 2006, ce réseau regroupe seize laboratoires vétérinaires qui jouent encore un rôle majeur en termes de veille en épidémiologie animale pour les maladies infectieuses et non infectieuses, et pour des problèmes émergents tels que risque pandémique avec la grippe aviaire, ou l'encéphalopathie spongiforme bovine (ESB) après avoir contribué à la lutte contre l'anthrax, la rage, la maladie de Newcastle, la brucellose, entre autres.
